--- a/import/raw_data/eurostat/mapping__nrg_bal__subsector.xlsx
+++ b/import/raw_data/eurostat/mapping__nrg_bal__subsector.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_env\workspace\micat\back_end\import\public\eurostat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\eurostat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DB2807-5637-4CE6-AFBC-3F0C5EB68143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="46080" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1288,7 +1276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1648,11 +1636,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2358,7 +2346,7 @@
         <v>141</v>
       </c>
       <c r="C34" s="2">
-        <v>23</v>
+        <v>-999</v>
       </c>
       <c r="D34" t="s">
         <v>142</v>
@@ -4038,6 +4026,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">mapping</Type>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010081027A5C4AB68A40A5017F28CDCC410C" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f1f428d4bdb6f67b400b210b48125618">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca47701c-f272-4f81-9665-1c7dbebc0776" xmlns:ns3="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8189f6f0f7c839d9d0d3622fd62ec189" ns2:_="" ns3:_="">
     <xsd:import namespace="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
@@ -4290,7 +4290,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4299,19 +4299,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">mapping</Type>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BF1D79-FFAB-4BA6-BDE1-966B5659A2B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
+    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D5191FC-5F75-46D4-9FEF-2A5E109F1104}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4330,27 +4335,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A20985FE-D712-453E-8550-5ADA14768C4D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4BF1D79-FFAB-4BA6-BDE1-966B5659A2B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
-    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>